--- a/NCBI_Uploads/Invertebrate.1.0.xlsx
+++ b/NCBI_Uploads/Invertebrate.1.0.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="122" documentId="8_{426E3DFA-650B-45B4-9380-77DC800CE2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3779882-FD7A-4A48-9294-B89D4575ABD5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4650" yWindow="5085" windowWidth="6120" windowHeight="2790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invertebrate.1.0" sheetId="1" r:id="rId1"/>
@@ -1290,6 +1290,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1580,7 +1584,7 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P40" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
